--- a/Cravath.xlsx
+++ b/Cravath.xlsx
@@ -5145,10 +5145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="22">
@@ -5175,10 +5175,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5189,10 +5204,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5204,15 +5243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5227,16 +5259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5249,17 +5288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5267,37 +5297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5312,7 +5312,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5327,7 +5327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5339,121 +5357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5471,7 +5375,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5483,25 +5453,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5536,24 +5536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5571,10 +5553,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5598,8 +5578,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5619,166 +5614,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6137,19 +6137,17 @@
   <sheetPr/>
   <dimension ref="A1:G554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="34.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="30.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="43.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="49.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="21.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="18.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6195,7 +6193,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6218,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6241,7 +6239,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6264,7 +6262,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6287,7 +6285,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6310,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6333,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6356,7 +6354,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6379,7 +6377,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6402,7 +6400,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6425,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6448,7 +6446,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6471,7 +6469,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6494,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6517,7 +6515,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6540,7 +6538,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6563,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6586,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6609,7 +6607,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6632,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6655,7 +6653,7 @@
         <v>77</v>
       </c>
       <c r="G22" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6678,7 +6676,7 @@
         <v>77</v>
       </c>
       <c r="G23" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6701,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="G24" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6724,7 +6722,7 @@
         <v>77</v>
       </c>
       <c r="G25" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6747,7 +6745,7 @@
         <v>77</v>
       </c>
       <c r="G26" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6770,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6793,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="G28" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6816,7 +6814,7 @@
         <v>77</v>
       </c>
       <c r="G29" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6839,7 +6837,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6862,7 +6860,7 @@
         <v>77</v>
       </c>
       <c r="G31" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6885,7 +6883,7 @@
         <v>77</v>
       </c>
       <c r="G32" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6908,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="G33" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6931,7 +6929,7 @@
         <v>77</v>
       </c>
       <c r="G34" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6954,7 +6952,7 @@
         <v>77</v>
       </c>
       <c r="G35" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6977,7 +6975,7 @@
         <v>77</v>
       </c>
       <c r="G36" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7000,7 +6998,7 @@
         <v>77</v>
       </c>
       <c r="G37" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7023,7 +7021,7 @@
         <v>77</v>
       </c>
       <c r="G38" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7046,7 +7044,7 @@
         <v>77</v>
       </c>
       <c r="G39" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7069,7 +7067,7 @@
         <v>77</v>
       </c>
       <c r="G40" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7092,7 +7090,7 @@
         <v>77</v>
       </c>
       <c r="G41" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7115,7 +7113,7 @@
         <v>138</v>
       </c>
       <c r="G42" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7138,7 +7136,7 @@
         <v>138</v>
       </c>
       <c r="G43" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7161,7 +7159,7 @@
         <v>138</v>
       </c>
       <c r="G44" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7184,7 +7182,7 @@
         <v>138</v>
       </c>
       <c r="G45" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7207,7 +7205,7 @@
         <v>138</v>
       </c>
       <c r="G46" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7230,7 +7228,7 @@
         <v>138</v>
       </c>
       <c r="G47" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7253,7 +7251,7 @@
         <v>138</v>
       </c>
       <c r="G48" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7276,7 +7274,7 @@
         <v>138</v>
       </c>
       <c r="G49" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7299,7 +7297,7 @@
         <v>138</v>
       </c>
       <c r="G50" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7322,7 +7320,7 @@
         <v>138</v>
       </c>
       <c r="G51" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7345,7 +7343,7 @@
         <v>138</v>
       </c>
       <c r="G52" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7368,7 +7366,7 @@
         <v>138</v>
       </c>
       <c r="G53" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7391,7 +7389,7 @@
         <v>138</v>
       </c>
       <c r="G54" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7414,7 +7412,7 @@
         <v>138</v>
       </c>
       <c r="G55" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -7437,7 +7435,7 @@
         <v>138</v>
       </c>
       <c r="G56" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -7460,7 +7458,7 @@
         <v>138</v>
       </c>
       <c r="G57" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7483,7 +7481,7 @@
         <v>138</v>
       </c>
       <c r="G58" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -7506,7 +7504,7 @@
         <v>138</v>
       </c>
       <c r="G59" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -7529,7 +7527,7 @@
         <v>138</v>
       </c>
       <c r="G60" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -7552,7 +7550,7 @@
         <v>138</v>
       </c>
       <c r="G61" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7575,7 +7573,7 @@
         <v>199</v>
       </c>
       <c r="G62" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -7598,7 +7596,7 @@
         <v>199</v>
       </c>
       <c r="G63" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7621,7 +7619,7 @@
         <v>199</v>
       </c>
       <c r="G64" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7644,7 +7642,7 @@
         <v>199</v>
       </c>
       <c r="G65" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7667,7 +7665,7 @@
         <v>199</v>
       </c>
       <c r="G66" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7690,7 +7688,7 @@
         <v>199</v>
       </c>
       <c r="G67" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7713,7 +7711,7 @@
         <v>199</v>
       </c>
       <c r="G68" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7736,7 +7734,7 @@
         <v>199</v>
       </c>
       <c r="G69" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7759,7 +7757,7 @@
         <v>199</v>
       </c>
       <c r="G70" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7782,7 +7780,7 @@
         <v>199</v>
       </c>
       <c r="G71" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7805,7 +7803,7 @@
         <v>199</v>
       </c>
       <c r="G72" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7828,7 +7826,7 @@
         <v>199</v>
       </c>
       <c r="G73" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7851,7 +7849,7 @@
         <v>199</v>
       </c>
       <c r="G74" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7874,7 +7872,7 @@
         <v>199</v>
       </c>
       <c r="G75" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7897,7 +7895,7 @@
         <v>199</v>
       </c>
       <c r="G76" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7920,7 +7918,7 @@
         <v>199</v>
       </c>
       <c r="G77" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7943,7 +7941,7 @@
         <v>199</v>
       </c>
       <c r="G78" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7966,7 +7964,7 @@
         <v>199</v>
       </c>
       <c r="G79" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7989,7 +7987,7 @@
         <v>199</v>
       </c>
       <c r="G80" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -8012,7 +8010,7 @@
         <v>199</v>
       </c>
       <c r="G81" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -8035,7 +8033,7 @@
         <v>260</v>
       </c>
       <c r="G82" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -8058,7 +8056,7 @@
         <v>260</v>
       </c>
       <c r="G83" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -8081,7 +8079,7 @@
         <v>260</v>
       </c>
       <c r="G84" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -8104,7 +8102,7 @@
         <v>260</v>
       </c>
       <c r="G85" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8127,7 +8125,7 @@
         <v>260</v>
       </c>
       <c r="G86" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -8150,7 +8148,7 @@
         <v>260</v>
       </c>
       <c r="G87" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8173,7 +8171,7 @@
         <v>260</v>
       </c>
       <c r="G88" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8196,7 +8194,7 @@
         <v>260</v>
       </c>
       <c r="G89" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8219,7 +8217,7 @@
         <v>260</v>
       </c>
       <c r="G90" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8242,7 +8240,7 @@
         <v>260</v>
       </c>
       <c r="G91" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8265,7 +8263,7 @@
         <v>260</v>
       </c>
       <c r="G92" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8288,7 +8286,7 @@
         <v>260</v>
       </c>
       <c r="G93" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8311,7 +8309,7 @@
         <v>260</v>
       </c>
       <c r="G94" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8334,7 +8332,7 @@
         <v>260</v>
       </c>
       <c r="G95" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8357,7 +8355,7 @@
         <v>260</v>
       </c>
       <c r="G96" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8380,7 +8378,7 @@
         <v>260</v>
       </c>
       <c r="G97" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8403,7 +8401,7 @@
         <v>310</v>
       </c>
       <c r="G98" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8426,7 +8424,7 @@
         <v>310</v>
       </c>
       <c r="G99" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -8449,7 +8447,7 @@
         <v>310</v>
       </c>
       <c r="G100" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8472,7 +8470,7 @@
         <v>310</v>
       </c>
       <c r="G101" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8495,7 +8493,7 @@
         <v>310</v>
       </c>
       <c r="G102" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8518,7 +8516,7 @@
         <v>310</v>
       </c>
       <c r="G103" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8541,7 +8539,7 @@
         <v>310</v>
       </c>
       <c r="G104" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8564,7 +8562,7 @@
         <v>333</v>
       </c>
       <c r="G105" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8587,7 +8585,7 @@
         <v>333</v>
       </c>
       <c r="G106" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8610,7 +8608,7 @@
         <v>333</v>
       </c>
       <c r="G107" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8633,7 +8631,7 @@
         <v>344</v>
       </c>
       <c r="G108" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8656,7 +8654,7 @@
         <v>344</v>
       </c>
       <c r="G109" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8679,7 +8677,7 @@
         <v>344</v>
       </c>
       <c r="G110" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8702,7 +8700,7 @@
         <v>344</v>
       </c>
       <c r="G111" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8725,7 +8723,7 @@
         <v>344</v>
       </c>
       <c r="G112" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8748,7 +8746,7 @@
         <v>344</v>
       </c>
       <c r="G113" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8771,7 +8769,7 @@
         <v>344</v>
       </c>
       <c r="G114" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8794,7 +8792,7 @@
         <v>344</v>
       </c>
       <c r="G115" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8817,7 +8815,7 @@
         <v>344</v>
       </c>
       <c r="G116" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8840,7 +8838,7 @@
         <v>344</v>
       </c>
       <c r="G117" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8863,7 +8861,7 @@
         <v>344</v>
       </c>
       <c r="G118" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8886,7 +8884,7 @@
         <v>344</v>
       </c>
       <c r="G119" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8909,7 +8907,7 @@
         <v>344</v>
       </c>
       <c r="G120" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8932,7 +8930,7 @@
         <v>344</v>
       </c>
       <c r="G121" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8955,7 +8953,7 @@
         <v>344</v>
       </c>
       <c r="G122" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8978,7 +8976,7 @@
         <v>344</v>
       </c>
       <c r="G123" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -9001,7 +8999,7 @@
         <v>344</v>
       </c>
       <c r="G124" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -9024,7 +9022,7 @@
         <v>344</v>
       </c>
       <c r="G125" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9047,7 +9045,7 @@
         <v>344</v>
       </c>
       <c r="G126" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -9070,7 +9068,7 @@
         <v>403</v>
       </c>
       <c r="G127" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -9093,7 +9091,7 @@
         <v>403</v>
       </c>
       <c r="G128" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -9116,7 +9114,7 @@
         <v>403</v>
       </c>
       <c r="G129" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -9139,7 +9137,7 @@
         <v>403</v>
       </c>
       <c r="G130" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -9162,7 +9160,7 @@
         <v>403</v>
       </c>
       <c r="G131" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -9185,7 +9183,7 @@
         <v>403</v>
       </c>
       <c r="G132" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -9208,7 +9206,7 @@
         <v>403</v>
       </c>
       <c r="G133" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -9231,7 +9229,7 @@
         <v>403</v>
       </c>
       <c r="G134" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -9254,7 +9252,7 @@
         <v>403</v>
       </c>
       <c r="G135" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -9277,7 +9275,7 @@
         <v>403</v>
       </c>
       <c r="G136" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -9300,7 +9298,7 @@
         <v>403</v>
       </c>
       <c r="G137" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -9323,7 +9321,7 @@
         <v>403</v>
       </c>
       <c r="G138" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -9346,7 +9344,7 @@
         <v>403</v>
       </c>
       <c r="G139" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -9369,7 +9367,7 @@
         <v>403</v>
       </c>
       <c r="G140" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -9392,7 +9390,7 @@
         <v>403</v>
       </c>
       <c r="G141" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -9415,7 +9413,7 @@
         <v>403</v>
       </c>
       <c r="G142" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -9438,7 +9436,7 @@
         <v>403</v>
       </c>
       <c r="G143" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -9461,7 +9459,7 @@
         <v>403</v>
       </c>
       <c r="G144" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -9484,7 +9482,7 @@
         <v>403</v>
       </c>
       <c r="G145" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -9507,7 +9505,7 @@
         <v>403</v>
       </c>
       <c r="G146" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -9530,7 +9528,7 @@
         <v>333</v>
       </c>
       <c r="G147" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9553,7 +9551,7 @@
         <v>333</v>
       </c>
       <c r="G148" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9576,7 +9574,7 @@
         <v>474</v>
       </c>
       <c r="G149" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -9599,7 +9597,7 @@
         <v>474</v>
       </c>
       <c r="G150" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9622,7 +9620,7 @@
         <v>474</v>
       </c>
       <c r="G151" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9645,7 +9643,7 @@
         <v>474</v>
       </c>
       <c r="G152" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9668,7 +9666,7 @@
         <v>474</v>
       </c>
       <c r="G153" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9691,7 +9689,7 @@
         <v>474</v>
       </c>
       <c r="G154" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9714,7 +9712,7 @@
         <v>474</v>
       </c>
       <c r="G155" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9737,7 +9735,7 @@
         <v>474</v>
       </c>
       <c r="G156" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9760,7 +9758,7 @@
         <v>474</v>
       </c>
       <c r="G157" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9783,7 +9781,7 @@
         <v>474</v>
       </c>
       <c r="G158" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9806,7 +9804,7 @@
         <v>474</v>
       </c>
       <c r="G159" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9829,7 +9827,7 @@
         <v>474</v>
       </c>
       <c r="G160" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9852,7 +9850,7 @@
         <v>474</v>
       </c>
       <c r="G161" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9875,7 +9873,7 @@
         <v>474</v>
       </c>
       <c r="G162" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9898,7 +9896,7 @@
         <v>474</v>
       </c>
       <c r="G163" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9921,7 +9919,7 @@
         <v>474</v>
       </c>
       <c r="G164" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9944,7 +9942,7 @@
         <v>474</v>
       </c>
       <c r="G165" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9967,7 +9965,7 @@
         <v>474</v>
       </c>
       <c r="G166" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9990,7 +9988,7 @@
         <v>474</v>
       </c>
       <c r="G167" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -10013,7 +10011,7 @@
         <v>474</v>
       </c>
       <c r="G168" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -10036,7 +10034,7 @@
         <v>535</v>
       </c>
       <c r="G169" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -10059,7 +10057,7 @@
         <v>535</v>
       </c>
       <c r="G170" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -10082,7 +10080,7 @@
         <v>535</v>
       </c>
       <c r="G171" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -10105,7 +10103,7 @@
         <v>535</v>
       </c>
       <c r="G172" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -10128,7 +10126,7 @@
         <v>535</v>
       </c>
       <c r="G173" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -10151,7 +10149,7 @@
         <v>535</v>
       </c>
       <c r="G174" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -10174,7 +10172,7 @@
         <v>535</v>
       </c>
       <c r="G175" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -10197,7 +10195,7 @@
         <v>535</v>
       </c>
       <c r="G176" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -10220,7 +10218,7 @@
         <v>535</v>
       </c>
       <c r="G177" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -10243,7 +10241,7 @@
         <v>535</v>
       </c>
       <c r="G178" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -10266,7 +10264,7 @@
         <v>535</v>
       </c>
       <c r="G179" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -10289,7 +10287,7 @@
         <v>535</v>
       </c>
       <c r="G180" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -10312,7 +10310,7 @@
         <v>535</v>
       </c>
       <c r="G181" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -10335,7 +10333,7 @@
         <v>535</v>
       </c>
       <c r="G182" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -10358,7 +10356,7 @@
         <v>535</v>
       </c>
       <c r="G183" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -10381,7 +10379,7 @@
         <v>535</v>
       </c>
       <c r="G184" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -10404,7 +10402,7 @@
         <v>535</v>
       </c>
       <c r="G185" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -10427,7 +10425,7 @@
         <v>535</v>
       </c>
       <c r="G186" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -10450,7 +10448,7 @@
         <v>535</v>
       </c>
       <c r="G187" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -10473,7 +10471,7 @@
         <v>535</v>
       </c>
       <c r="G188" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -10496,7 +10494,7 @@
         <v>596</v>
       </c>
       <c r="G189" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -10519,7 +10517,7 @@
         <v>596</v>
       </c>
       <c r="G190" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -10542,7 +10540,7 @@
         <v>596</v>
       </c>
       <c r="G191" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -10565,7 +10563,7 @@
         <v>596</v>
       </c>
       <c r="G192" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -10588,7 +10586,7 @@
         <v>596</v>
       </c>
       <c r="G193" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -10611,7 +10609,7 @@
         <v>596</v>
       </c>
       <c r="G194" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -10634,7 +10632,7 @@
         <v>596</v>
       </c>
       <c r="G195" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -10657,7 +10655,7 @@
         <v>596</v>
       </c>
       <c r="G196" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10680,7 +10678,7 @@
         <v>596</v>
       </c>
       <c r="G197" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -10703,7 +10701,7 @@
         <v>596</v>
       </c>
       <c r="G198" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -10726,7 +10724,7 @@
         <v>596</v>
       </c>
       <c r="G199" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10749,7 +10747,7 @@
         <v>596</v>
       </c>
       <c r="G200" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10772,7 +10770,7 @@
         <v>596</v>
       </c>
       <c r="G201" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10795,7 +10793,7 @@
         <v>596</v>
       </c>
       <c r="G202" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10818,7 +10816,7 @@
         <v>596</v>
       </c>
       <c r="G203" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10841,7 +10839,7 @@
         <v>596</v>
       </c>
       <c r="G204" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10864,7 +10862,7 @@
         <v>596</v>
       </c>
       <c r="G205" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10887,7 +10885,7 @@
         <v>596</v>
       </c>
       <c r="G206" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10910,7 +10908,7 @@
         <v>596</v>
       </c>
       <c r="G207" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10933,7 +10931,7 @@
         <v>596</v>
       </c>
       <c r="G208" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10956,7 +10954,7 @@
         <v>657</v>
       </c>
       <c r="G209" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -10979,7 +10977,7 @@
         <v>657</v>
       </c>
       <c r="G210" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -11002,7 +11000,7 @@
         <v>657</v>
       </c>
       <c r="G211" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -11025,7 +11023,7 @@
         <v>657</v>
       </c>
       <c r="G212" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -11048,7 +11046,7 @@
         <v>657</v>
       </c>
       <c r="G213" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -11071,7 +11069,7 @@
         <v>657</v>
       </c>
       <c r="G214" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -11094,7 +11092,7 @@
         <v>657</v>
       </c>
       <c r="G215" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -11117,7 +11115,7 @@
         <v>657</v>
       </c>
       <c r="G216" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -11140,7 +11138,7 @@
         <v>657</v>
       </c>
       <c r="G217" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -11163,7 +11161,7 @@
         <v>657</v>
       </c>
       <c r="G218" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -11186,7 +11184,7 @@
         <v>657</v>
       </c>
       <c r="G219" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -11209,7 +11207,7 @@
         <v>657</v>
       </c>
       <c r="G220" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -11232,7 +11230,7 @@
         <v>657</v>
       </c>
       <c r="G221" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -11255,7 +11253,7 @@
         <v>657</v>
       </c>
       <c r="G222" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -11278,7 +11276,7 @@
         <v>657</v>
       </c>
       <c r="G223" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -11301,7 +11299,7 @@
         <v>657</v>
       </c>
       <c r="G224" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -11324,7 +11322,7 @@
         <v>657</v>
       </c>
       <c r="G225" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -11347,7 +11345,7 @@
         <v>657</v>
       </c>
       <c r="G226" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -11370,7 +11368,7 @@
         <v>657</v>
       </c>
       <c r="G227" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -11393,7 +11391,7 @@
         <v>657</v>
       </c>
       <c r="G228" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -11416,7 +11414,7 @@
         <v>718</v>
       </c>
       <c r="G229" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -11439,7 +11437,7 @@
         <v>718</v>
       </c>
       <c r="G230" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -11462,7 +11460,7 @@
         <v>718</v>
       </c>
       <c r="G231" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -11485,7 +11483,7 @@
         <v>718</v>
       </c>
       <c r="G232" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -11508,7 +11506,7 @@
         <v>718</v>
       </c>
       <c r="G233" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -11531,7 +11529,7 @@
         <v>718</v>
       </c>
       <c r="G234" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -11554,7 +11552,7 @@
         <v>718</v>
       </c>
       <c r="G235" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -11577,7 +11575,7 @@
         <v>718</v>
       </c>
       <c r="G236" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -11600,7 +11598,7 @@
         <v>718</v>
       </c>
       <c r="G237" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -11623,7 +11621,7 @@
         <v>718</v>
       </c>
       <c r="G238" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -11646,7 +11644,7 @@
         <v>718</v>
       </c>
       <c r="G239" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -11669,7 +11667,7 @@
         <v>718</v>
       </c>
       <c r="G240" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -11692,7 +11690,7 @@
         <v>718</v>
       </c>
       <c r="G241" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -11715,7 +11713,7 @@
         <v>718</v>
       </c>
       <c r="G242" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -11738,7 +11736,7 @@
         <v>718</v>
       </c>
       <c r="G243" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -11761,7 +11759,7 @@
         <v>718</v>
       </c>
       <c r="G244" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -11784,7 +11782,7 @@
         <v>718</v>
       </c>
       <c r="G245" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11807,7 +11805,7 @@
         <v>718</v>
       </c>
       <c r="G246" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11830,7 +11828,7 @@
         <v>718</v>
       </c>
       <c r="G247" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11853,7 +11851,7 @@
         <v>718</v>
       </c>
       <c r="G248" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11876,7 +11874,7 @@
         <v>779</v>
       </c>
       <c r="G249" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11899,7 +11897,7 @@
         <v>779</v>
       </c>
       <c r="G250" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -11922,7 +11920,7 @@
         <v>779</v>
       </c>
       <c r="G251" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11945,7 +11943,7 @@
         <v>779</v>
       </c>
       <c r="G252" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11968,7 +11966,7 @@
         <v>779</v>
       </c>
       <c r="G253" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11991,7 +11989,7 @@
         <v>779</v>
       </c>
       <c r="G254" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -12014,7 +12012,7 @@
         <v>779</v>
       </c>
       <c r="G255" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -12037,7 +12035,7 @@
         <v>779</v>
       </c>
       <c r="G256" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -12060,7 +12058,7 @@
         <v>779</v>
       </c>
       <c r="G257" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -12083,7 +12081,7 @@
         <v>779</v>
       </c>
       <c r="G258" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -12106,7 +12104,7 @@
         <v>779</v>
       </c>
       <c r="G259" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -12129,7 +12127,7 @@
         <v>779</v>
       </c>
       <c r="G260" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -12152,7 +12150,7 @@
         <v>779</v>
       </c>
       <c r="G261" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -12175,7 +12173,7 @@
         <v>779</v>
       </c>
       <c r="G262" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -12198,7 +12196,7 @@
         <v>779</v>
       </c>
       <c r="G263" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -12221,7 +12219,7 @@
         <v>779</v>
       </c>
       <c r="G264" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -12244,7 +12242,7 @@
         <v>779</v>
       </c>
       <c r="G265" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -12267,7 +12265,7 @@
         <v>779</v>
       </c>
       <c r="G266" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -12290,7 +12288,7 @@
         <v>779</v>
       </c>
       <c r="G267" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -12313,7 +12311,7 @@
         <v>779</v>
       </c>
       <c r="G268" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -12336,7 +12334,7 @@
         <v>840</v>
       </c>
       <c r="G269" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -12359,7 +12357,7 @@
         <v>840</v>
       </c>
       <c r="G270" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -12382,7 +12380,7 @@
         <v>840</v>
       </c>
       <c r="G271" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -12405,7 +12403,7 @@
         <v>840</v>
       </c>
       <c r="G272" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -12428,7 +12426,7 @@
         <v>840</v>
       </c>
       <c r="G273" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -12451,7 +12449,7 @@
         <v>840</v>
       </c>
       <c r="G274" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -12474,7 +12472,7 @@
         <v>840</v>
       </c>
       <c r="G275" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -12497,7 +12495,7 @@
         <v>840</v>
       </c>
       <c r="G276" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -12520,7 +12518,7 @@
         <v>840</v>
       </c>
       <c r="G277" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -12543,7 +12541,7 @@
         <v>840</v>
       </c>
       <c r="G278" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -12566,7 +12564,7 @@
         <v>840</v>
       </c>
       <c r="G279" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -12589,7 +12587,7 @@
         <v>840</v>
       </c>
       <c r="G280" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -12612,7 +12610,7 @@
         <v>840</v>
       </c>
       <c r="G281" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -12635,7 +12633,7 @@
         <v>840</v>
       </c>
       <c r="G282" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -12658,7 +12656,7 @@
         <v>840</v>
       </c>
       <c r="G283" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -12681,7 +12679,7 @@
         <v>840</v>
       </c>
       <c r="G284" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -12704,7 +12702,7 @@
         <v>840</v>
       </c>
       <c r="G285" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -12727,7 +12725,7 @@
         <v>840</v>
       </c>
       <c r="G286" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12750,7 +12748,7 @@
         <v>840</v>
       </c>
       <c r="G287" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12773,7 +12771,7 @@
         <v>840</v>
       </c>
       <c r="G288" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -12796,7 +12794,7 @@
         <v>900</v>
       </c>
       <c r="G289" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -12819,7 +12817,7 @@
         <v>900</v>
       </c>
       <c r="G290" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -12842,7 +12840,7 @@
         <v>900</v>
       </c>
       <c r="G291" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -12865,7 +12863,7 @@
         <v>900</v>
       </c>
       <c r="G292" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -12888,7 +12886,7 @@
         <v>900</v>
       </c>
       <c r="G293" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -12911,7 +12909,7 @@
         <v>900</v>
       </c>
       <c r="G294" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -12934,7 +12932,7 @@
         <v>900</v>
       </c>
       <c r="G295" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12957,7 +12955,7 @@
         <v>900</v>
       </c>
       <c r="G296" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -12980,7 +12978,7 @@
         <v>900</v>
       </c>
       <c r="G297" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -13003,7 +13001,7 @@
         <v>900</v>
       </c>
       <c r="G298" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -13026,7 +13024,7 @@
         <v>900</v>
       </c>
       <c r="G299" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -13049,7 +13047,7 @@
         <v>900</v>
       </c>
       <c r="G300" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -13072,7 +13070,7 @@
         <v>900</v>
       </c>
       <c r="G301" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -13095,7 +13093,7 @@
         <v>900</v>
       </c>
       <c r="G302" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -13118,7 +13116,7 @@
         <v>900</v>
       </c>
       <c r="G303" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -13141,7 +13139,7 @@
         <v>900</v>
       </c>
       <c r="G304" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -13164,7 +13162,7 @@
         <v>900</v>
       </c>
       <c r="G305" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -13187,7 +13185,7 @@
         <v>900</v>
       </c>
       <c r="G306" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -13210,7 +13208,7 @@
         <v>900</v>
       </c>
       <c r="G307" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -13233,7 +13231,7 @@
         <v>900</v>
       </c>
       <c r="G308" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -13256,7 +13254,7 @@
         <v>961</v>
       </c>
       <c r="G309" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -13279,7 +13277,7 @@
         <v>961</v>
       </c>
       <c r="G310" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -13302,7 +13300,7 @@
         <v>961</v>
       </c>
       <c r="G311" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -13325,7 +13323,7 @@
         <v>961</v>
       </c>
       <c r="G312" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -13348,7 +13346,7 @@
         <v>961</v>
       </c>
       <c r="G313" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -13371,7 +13369,7 @@
         <v>961</v>
       </c>
       <c r="G314" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -13394,7 +13392,7 @@
         <v>961</v>
       </c>
       <c r="G315" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -13417,7 +13415,7 @@
         <v>961</v>
       </c>
       <c r="G316" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -13440,7 +13438,7 @@
         <v>961</v>
       </c>
       <c r="G317" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -13463,7 +13461,7 @@
         <v>961</v>
       </c>
       <c r="G318" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -13486,7 +13484,7 @@
         <v>961</v>
       </c>
       <c r="G319" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -13509,7 +13507,7 @@
         <v>961</v>
       </c>
       <c r="G320" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -13532,7 +13530,7 @@
         <v>961</v>
       </c>
       <c r="G321" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -13555,7 +13553,7 @@
         <v>961</v>
       </c>
       <c r="G322" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -13578,7 +13576,7 @@
         <v>961</v>
       </c>
       <c r="G323" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -13601,7 +13599,7 @@
         <v>961</v>
       </c>
       <c r="G324" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -13624,7 +13622,7 @@
         <v>961</v>
       </c>
       <c r="G325" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -13647,7 +13645,7 @@
         <v>961</v>
       </c>
       <c r="G326" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -13670,7 +13668,7 @@
         <v>961</v>
       </c>
       <c r="G327" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -13693,7 +13691,7 @@
         <v>961</v>
       </c>
       <c r="G328" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -13716,7 +13714,7 @@
         <v>1022</v>
       </c>
       <c r="G329" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -13739,7 +13737,7 @@
         <v>1022</v>
       </c>
       <c r="G330" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -13762,7 +13760,7 @@
         <v>1022</v>
       </c>
       <c r="G331" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -13785,7 +13783,7 @@
         <v>1022</v>
       </c>
       <c r="G332" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13808,7 +13806,7 @@
         <v>1022</v>
       </c>
       <c r="G333" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13831,7 +13829,7 @@
         <v>1022</v>
       </c>
       <c r="G334" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13854,7 +13852,7 @@
         <v>1022</v>
       </c>
       <c r="G335" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13877,7 +13875,7 @@
         <v>1022</v>
       </c>
       <c r="G336" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -13900,7 +13898,7 @@
         <v>1022</v>
       </c>
       <c r="G337" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -13923,7 +13921,7 @@
         <v>1022</v>
       </c>
       <c r="G338" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -13946,7 +13944,7 @@
         <v>1022</v>
       </c>
       <c r="G339" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -13969,7 +13967,7 @@
         <v>1022</v>
       </c>
       <c r="G340" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -13992,7 +13990,7 @@
         <v>1022</v>
       </c>
       <c r="G341" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -14015,7 +14013,7 @@
         <v>1022</v>
       </c>
       <c r="G342" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -14038,7 +14036,7 @@
         <v>1022</v>
       </c>
       <c r="G343" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -14061,7 +14059,7 @@
         <v>1022</v>
       </c>
       <c r="G344" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -14084,7 +14082,7 @@
         <v>1022</v>
       </c>
       <c r="G345" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -14107,7 +14105,7 @@
         <v>1022</v>
       </c>
       <c r="G346" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14130,7 +14128,7 @@
         <v>1022</v>
       </c>
       <c r="G347" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -14153,7 +14151,7 @@
         <v>1022</v>
       </c>
       <c r="G348" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -14176,7 +14174,7 @@
         <v>1083</v>
       </c>
       <c r="G349" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -14199,7 +14197,7 @@
         <v>1083</v>
       </c>
       <c r="G350" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -14222,7 +14220,7 @@
         <v>1083</v>
       </c>
       <c r="G351" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -14245,7 +14243,7 @@
         <v>1083</v>
       </c>
       <c r="G352" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -14268,7 +14266,7 @@
         <v>1083</v>
       </c>
       <c r="G353" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -14291,7 +14289,7 @@
         <v>1083</v>
       </c>
       <c r="G354" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -14314,7 +14312,7 @@
         <v>1083</v>
       </c>
       <c r="G355" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -14337,7 +14335,7 @@
         <v>1083</v>
       </c>
       <c r="G356" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -14360,7 +14358,7 @@
         <v>1083</v>
       </c>
       <c r="G357" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -14383,7 +14381,7 @@
         <v>1083</v>
       </c>
       <c r="G358" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14406,7 +14404,7 @@
         <v>1083</v>
       </c>
       <c r="G359" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -14429,7 +14427,7 @@
         <v>1083</v>
       </c>
       <c r="G360" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -14452,7 +14450,7 @@
         <v>1083</v>
       </c>
       <c r="G361" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14475,7 +14473,7 @@
         <v>1083</v>
       </c>
       <c r="G362" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -14498,7 +14496,7 @@
         <v>1083</v>
       </c>
       <c r="G363" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -14521,7 +14519,7 @@
         <v>1083</v>
       </c>
       <c r="G364" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -14544,7 +14542,7 @@
         <v>1083</v>
       </c>
       <c r="G365" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -14567,7 +14565,7 @@
         <v>1083</v>
       </c>
       <c r="G366" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -14590,7 +14588,7 @@
         <v>1083</v>
       </c>
       <c r="G367" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -14613,7 +14611,7 @@
         <v>1083</v>
       </c>
       <c r="G368" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -14636,7 +14634,7 @@
         <v>1144</v>
       </c>
       <c r="G369" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -14659,7 +14657,7 @@
         <v>1144</v>
       </c>
       <c r="G370" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -14682,7 +14680,7 @@
         <v>1144</v>
       </c>
       <c r="G371" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -14705,7 +14703,7 @@
         <v>1144</v>
       </c>
       <c r="G372" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -14728,7 +14726,7 @@
         <v>1144</v>
       </c>
       <c r="G373" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -14751,7 +14749,7 @@
         <v>1144</v>
       </c>
       <c r="G374" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -14774,7 +14772,7 @@
         <v>1144</v>
       </c>
       <c r="G375" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -14797,7 +14795,7 @@
         <v>1144</v>
       </c>
       <c r="G376" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -14820,7 +14818,7 @@
         <v>1144</v>
       </c>
       <c r="G377" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -14843,7 +14841,7 @@
         <v>1144</v>
       </c>
       <c r="G378" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -14866,7 +14864,7 @@
         <v>1144</v>
       </c>
       <c r="G379" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14889,7 +14887,7 @@
         <v>1144</v>
       </c>
       <c r="G380" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14912,7 +14910,7 @@
         <v>1144</v>
       </c>
       <c r="G381" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14935,7 +14933,7 @@
         <v>1144</v>
       </c>
       <c r="G382" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -14958,7 +14956,7 @@
         <v>1144</v>
       </c>
       <c r="G383" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14981,7 +14979,7 @@
         <v>1144</v>
       </c>
       <c r="G384" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -15004,7 +15002,7 @@
         <v>1144</v>
       </c>
       <c r="G385" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -15027,7 +15025,7 @@
         <v>1144</v>
       </c>
       <c r="G386" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -15050,7 +15048,7 @@
         <v>1144</v>
       </c>
       <c r="G387" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -15073,7 +15071,7 @@
         <v>1144</v>
       </c>
       <c r="G388" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -15096,7 +15094,7 @@
         <v>1205</v>
       </c>
       <c r="G389" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -15119,7 +15117,7 @@
         <v>1205</v>
       </c>
       <c r="G390" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -15142,7 +15140,7 @@
         <v>1205</v>
       </c>
       <c r="G391" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -15165,7 +15163,7 @@
         <v>1205</v>
       </c>
       <c r="G392" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -15188,7 +15186,7 @@
         <v>1205</v>
       </c>
       <c r="G393" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -15211,7 +15209,7 @@
         <v>1205</v>
       </c>
       <c r="G394" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -15234,7 +15232,7 @@
         <v>1205</v>
       </c>
       <c r="G395" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -15257,7 +15255,7 @@
         <v>1205</v>
       </c>
       <c r="G396" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -15280,7 +15278,7 @@
         <v>1205</v>
       </c>
       <c r="G397" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -15303,7 +15301,7 @@
         <v>1205</v>
       </c>
       <c r="G398" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -15326,7 +15324,7 @@
         <v>1205</v>
       </c>
       <c r="G399" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -15349,7 +15347,7 @@
         <v>1205</v>
       </c>
       <c r="G400" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -15372,7 +15370,7 @@
         <v>1205</v>
       </c>
       <c r="G401" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -15395,7 +15393,7 @@
         <v>1205</v>
       </c>
       <c r="G402" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15418,7 +15416,7 @@
         <v>1205</v>
       </c>
       <c r="G403" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -15441,7 +15439,7 @@
         <v>1205</v>
       </c>
       <c r="G404" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -15464,7 +15462,7 @@
         <v>1205</v>
       </c>
       <c r="G405" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15487,7 +15485,7 @@
         <v>1205</v>
       </c>
       <c r="G406" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -15510,7 +15508,7 @@
         <v>1205</v>
       </c>
       <c r="G407" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -15533,7 +15531,7 @@
         <v>1205</v>
       </c>
       <c r="G408" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -15556,7 +15554,7 @@
         <v>1264</v>
       </c>
       <c r="G409" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -15579,7 +15577,7 @@
         <v>1264</v>
       </c>
       <c r="G410" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -15602,7 +15600,7 @@
         <v>1264</v>
       </c>
       <c r="G411" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -15625,7 +15623,7 @@
         <v>1264</v>
       </c>
       <c r="G412" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -15648,7 +15646,7 @@
         <v>1264</v>
       </c>
       <c r="G413" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -15671,7 +15669,7 @@
         <v>1264</v>
       </c>
       <c r="G414" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -15694,7 +15692,7 @@
         <v>1264</v>
       </c>
       <c r="G415" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -15717,7 +15715,7 @@
         <v>1264</v>
       </c>
       <c r="G416" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -15740,7 +15738,7 @@
         <v>1264</v>
       </c>
       <c r="G417" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -15763,7 +15761,7 @@
         <v>1264</v>
       </c>
       <c r="G418" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -15786,7 +15784,7 @@
         <v>1264</v>
       </c>
       <c r="G419" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -15809,7 +15807,7 @@
         <v>1264</v>
       </c>
       <c r="G420" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -15832,7 +15830,7 @@
         <v>1264</v>
       </c>
       <c r="G421" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -15855,7 +15853,7 @@
         <v>1264</v>
       </c>
       <c r="G422" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -15878,7 +15876,7 @@
         <v>1264</v>
       </c>
       <c r="G423" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -15901,7 +15899,7 @@
         <v>1264</v>
       </c>
       <c r="G424" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -15924,7 +15922,7 @@
         <v>1264</v>
       </c>
       <c r="G425" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -15947,7 +15945,7 @@
         <v>1264</v>
       </c>
       <c r="G426" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -15970,7 +15968,7 @@
         <v>1264</v>
       </c>
       <c r="G427" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -15993,7 +15991,7 @@
         <v>1264</v>
       </c>
       <c r="G428" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -16016,7 +16014,7 @@
         <v>1325</v>
       </c>
       <c r="G429" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -16039,7 +16037,7 @@
         <v>1325</v>
       </c>
       <c r="G430" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -16062,7 +16060,7 @@
         <v>1325</v>
       </c>
       <c r="G431" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -16085,7 +16083,7 @@
         <v>1325</v>
       </c>
       <c r="G432" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -16108,7 +16106,7 @@
         <v>1325</v>
       </c>
       <c r="G433" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -16131,7 +16129,7 @@
         <v>1325</v>
       </c>
       <c r="G434" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -16154,7 +16152,7 @@
         <v>1325</v>
       </c>
       <c r="G435" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -16177,7 +16175,7 @@
         <v>1325</v>
       </c>
       <c r="G436" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -16200,7 +16198,7 @@
         <v>1325</v>
       </c>
       <c r="G437" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -16223,7 +16221,7 @@
         <v>1325</v>
       </c>
       <c r="G438" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16246,7 +16244,7 @@
         <v>1325</v>
       </c>
       <c r="G439" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -16269,7 +16267,7 @@
         <v>1325</v>
       </c>
       <c r="G440" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -16292,7 +16290,7 @@
         <v>1325</v>
       </c>
       <c r="G441" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -16315,7 +16313,7 @@
         <v>1325</v>
       </c>
       <c r="G442" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -16338,7 +16336,7 @@
         <v>1325</v>
       </c>
       <c r="G443" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -16361,7 +16359,7 @@
         <v>1325</v>
       </c>
       <c r="G444" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -16384,7 +16382,7 @@
         <v>1325</v>
       </c>
       <c r="G445" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -16407,7 +16405,7 @@
         <v>1325</v>
       </c>
       <c r="G446" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -16430,7 +16428,7 @@
         <v>1325</v>
       </c>
       <c r="G447" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -16453,7 +16451,7 @@
         <v>1325</v>
       </c>
       <c r="G448" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -16476,7 +16474,7 @@
         <v>1386</v>
       </c>
       <c r="G449" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -16499,7 +16497,7 @@
         <v>1386</v>
       </c>
       <c r="G450" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -16522,7 +16520,7 @@
         <v>1386</v>
       </c>
       <c r="G451" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -16545,7 +16543,7 @@
         <v>1386</v>
       </c>
       <c r="G452" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -16568,7 +16566,7 @@
         <v>1386</v>
       </c>
       <c r="G453" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -16591,7 +16589,7 @@
         <v>1386</v>
       </c>
       <c r="G454" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -16614,7 +16612,7 @@
         <v>1386</v>
       </c>
       <c r="G455" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -16637,7 +16635,7 @@
         <v>1386</v>
       </c>
       <c r="G456" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16660,7 +16658,7 @@
         <v>1386</v>
       </c>
       <c r="G457" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -16683,7 +16681,7 @@
         <v>1386</v>
       </c>
       <c r="G458" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -16706,7 +16704,7 @@
         <v>1386</v>
       </c>
       <c r="G459" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -16729,7 +16727,7 @@
         <v>1386</v>
       </c>
       <c r="G460" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -16752,7 +16750,7 @@
         <v>1386</v>
       </c>
       <c r="G461" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -16775,7 +16773,7 @@
         <v>1386</v>
       </c>
       <c r="G462" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -16798,7 +16796,7 @@
         <v>1386</v>
       </c>
       <c r="G463" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -16821,7 +16819,7 @@
         <v>1386</v>
       </c>
       <c r="G464" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16844,7 +16842,7 @@
         <v>1386</v>
       </c>
       <c r="G465" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -16867,7 +16865,7 @@
         <v>1386</v>
       </c>
       <c r="G466" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -16890,7 +16888,7 @@
         <v>1386</v>
       </c>
       <c r="G467" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16913,7 +16911,7 @@
         <v>1386</v>
       </c>
       <c r="G468" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -16936,7 +16934,7 @@
         <v>1447</v>
       </c>
       <c r="G469" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -16959,7 +16957,7 @@
         <v>1447</v>
       </c>
       <c r="G470" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -16982,7 +16980,7 @@
         <v>1447</v>
       </c>
       <c r="G471" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -17005,7 +17003,7 @@
         <v>1447</v>
       </c>
       <c r="G472" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -17028,7 +17026,7 @@
         <v>1447</v>
       </c>
       <c r="G473" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -17051,7 +17049,7 @@
         <v>1447</v>
       </c>
       <c r="G474" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -17074,7 +17072,7 @@
         <v>1447</v>
       </c>
       <c r="G475" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -17097,7 +17095,7 @@
         <v>1447</v>
       </c>
       <c r="G476" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -17120,7 +17118,7 @@
         <v>1447</v>
       </c>
       <c r="G477" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -17143,7 +17141,7 @@
         <v>1447</v>
       </c>
       <c r="G478" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -17166,7 +17164,7 @@
         <v>1447</v>
       </c>
       <c r="G479" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -17189,7 +17187,7 @@
         <v>1447</v>
       </c>
       <c r="G480" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -17212,7 +17210,7 @@
         <v>1447</v>
       </c>
       <c r="G481" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -17235,7 +17233,7 @@
         <v>1447</v>
       </c>
       <c r="G482" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -17258,7 +17256,7 @@
         <v>1447</v>
       </c>
       <c r="G483" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -17281,7 +17279,7 @@
         <v>1447</v>
       </c>
       <c r="G484" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -17304,7 +17302,7 @@
         <v>1447</v>
       </c>
       <c r="G485" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -17327,7 +17325,7 @@
         <v>1447</v>
       </c>
       <c r="G486" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -17350,7 +17348,7 @@
         <v>1447</v>
       </c>
       <c r="G487" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -17373,7 +17371,7 @@
         <v>1447</v>
       </c>
       <c r="G488" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -17396,7 +17394,7 @@
         <v>1508</v>
       </c>
       <c r="G489" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -17419,7 +17417,7 @@
         <v>1508</v>
       </c>
       <c r="G490" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -17442,7 +17440,7 @@
         <v>1508</v>
       </c>
       <c r="G491" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -17465,7 +17463,7 @@
         <v>1508</v>
       </c>
       <c r="G492" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -17488,7 +17486,7 @@
         <v>1508</v>
       </c>
       <c r="G493" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -17511,7 +17509,7 @@
         <v>1525</v>
       </c>
       <c r="G494" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -17534,7 +17532,7 @@
         <v>1525</v>
       </c>
       <c r="G495" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -17557,7 +17555,7 @@
         <v>1525</v>
       </c>
       <c r="G496" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -17580,7 +17578,7 @@
         <v>1525</v>
       </c>
       <c r="G497" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -17603,7 +17601,7 @@
         <v>1525</v>
       </c>
       <c r="G498" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -17626,7 +17624,7 @@
         <v>1525</v>
       </c>
       <c r="G499" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -17649,7 +17647,7 @@
         <v>1525</v>
       </c>
       <c r="G500" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -17672,7 +17670,7 @@
         <v>1525</v>
       </c>
       <c r="G501" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -17695,7 +17693,7 @@
         <v>1525</v>
       </c>
       <c r="G502" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -17718,7 +17716,7 @@
         <v>1525</v>
       </c>
       <c r="G503" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -17741,7 +17739,7 @@
         <v>1525</v>
       </c>
       <c r="G504" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -17764,7 +17762,7 @@
         <v>1525</v>
       </c>
       <c r="G505" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -17787,7 +17785,7 @@
         <v>1525</v>
       </c>
       <c r="G506" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -17810,7 +17808,7 @@
         <v>1525</v>
       </c>
       <c r="G507" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -17833,7 +17831,7 @@
         <v>1525</v>
       </c>
       <c r="G508" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -17856,7 +17854,7 @@
         <v>333</v>
       </c>
       <c r="G509" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -17879,7 +17877,7 @@
         <v>1576</v>
       </c>
       <c r="G510" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -17902,7 +17900,7 @@
         <v>1576</v>
       </c>
       <c r="G511" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -17925,7 +17923,7 @@
         <v>1576</v>
       </c>
       <c r="G512" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -17948,7 +17946,7 @@
         <v>1576</v>
       </c>
       <c r="G513" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -17971,7 +17969,7 @@
         <v>1576</v>
       </c>
       <c r="G514" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -17994,7 +17992,7 @@
         <v>1576</v>
       </c>
       <c r="G515" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -18017,7 +18015,7 @@
         <v>1576</v>
       </c>
       <c r="G516" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -18040,7 +18038,7 @@
         <v>1576</v>
       </c>
       <c r="G517" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -18063,7 +18061,7 @@
         <v>1576</v>
       </c>
       <c r="G518" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -18086,7 +18084,7 @@
         <v>1576</v>
       </c>
       <c r="G519" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -18109,7 +18107,7 @@
         <v>1576</v>
       </c>
       <c r="G520" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -18132,7 +18130,7 @@
         <v>1576</v>
       </c>
       <c r="G521" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -18155,7 +18153,7 @@
         <v>1576</v>
       </c>
       <c r="G522" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -18178,7 +18176,7 @@
         <v>1576</v>
       </c>
       <c r="G523" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -18201,7 +18199,7 @@
         <v>1576</v>
       </c>
       <c r="G524" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -18224,7 +18222,7 @@
         <v>1576</v>
       </c>
       <c r="G525" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -18247,7 +18245,7 @@
         <v>1576</v>
       </c>
       <c r="G526" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -18270,7 +18268,7 @@
         <v>1576</v>
       </c>
       <c r="G527" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -18293,7 +18291,7 @@
         <v>1576</v>
       </c>
       <c r="G528" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -18316,7 +18314,7 @@
         <v>1576</v>
       </c>
       <c r="G529" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -18339,7 +18337,7 @@
         <v>1636</v>
       </c>
       <c r="G530" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -18362,7 +18360,7 @@
         <v>1636</v>
       </c>
       <c r="G531" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -18385,7 +18383,7 @@
         <v>1636</v>
       </c>
       <c r="G532" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -18408,7 +18406,7 @@
         <v>1636</v>
       </c>
       <c r="G533" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -18431,7 +18429,7 @@
         <v>1636</v>
       </c>
       <c r="G534" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -18454,7 +18452,7 @@
         <v>1636</v>
       </c>
       <c r="G535" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -18477,7 +18475,7 @@
         <v>1636</v>
       </c>
       <c r="G536" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -18500,7 +18498,7 @@
         <v>1636</v>
       </c>
       <c r="G537" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -18523,7 +18521,7 @@
         <v>1636</v>
       </c>
       <c r="G538" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -18546,7 +18544,7 @@
         <v>1636</v>
       </c>
       <c r="G539" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -18569,7 +18567,7 @@
         <v>1636</v>
       </c>
       <c r="G540" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -18592,7 +18590,7 @@
         <v>1636</v>
       </c>
       <c r="G541" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -18615,7 +18613,7 @@
         <v>1636</v>
       </c>
       <c r="G542" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -18638,7 +18636,7 @@
         <v>1636</v>
       </c>
       <c r="G543" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -18661,7 +18659,7 @@
         <v>1636</v>
       </c>
       <c r="G544" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -18684,7 +18682,7 @@
         <v>1636</v>
       </c>
       <c r="G545" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -18707,7 +18705,7 @@
         <v>1636</v>
       </c>
       <c r="G546" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -18730,7 +18728,7 @@
         <v>1636</v>
       </c>
       <c r="G547" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -18753,7 +18751,7 @@
         <v>1636</v>
       </c>
       <c r="G548" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -18776,7 +18774,7 @@
         <v>1636</v>
       </c>
       <c r="G549" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -18799,7 +18797,7 @@
         <v>1695</v>
       </c>
       <c r="G550" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -18822,7 +18820,7 @@
         <v>1695</v>
       </c>
       <c r="G551" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -18845,7 +18843,7 @@
         <v>1695</v>
       </c>
       <c r="G552" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -18868,7 +18866,7 @@
         <v>333</v>
       </c>
       <c r="G553" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -18891,7 +18889,7 @@
         <v>333</v>
       </c>
       <c r="G554" s="3">
-        <v>44522.9269053812</v>
+        <v>44523.5360540984</v>
       </c>
     </row>
   </sheetData>
